--- a/assets/nickname_song.xlsx
+++ b/assets/nickname_song.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyKoishiCode\bangdream-ccg\external\bangdream-ccg\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA1E5BC-9215-49F2-947E-80F42EFC5238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14390614-469D-4977-95A2-1035FA584C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3795,8 +3795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C551" workbookViewId="0">
-      <selection activeCell="C563" sqref="C563"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10114,7 +10114,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C573 A575:C578 A574:B574" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C578" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>